--- a/data_group/contrast_PF_SF_prec.xlsx
+++ b/data_group/contrast_PF_SF_prec.xlsx
@@ -417,7 +417,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -431,19 +431,19 @@
         </is>
       </c>
       <c r="D2">
-        <v>48.86127539788954</v>
+        <v>134.097181948047</v>
       </c>
       <c r="E2">
-        <v>25.93781052082491</v>
+        <v>23.36577647762294</v>
       </c>
       <c r="F2">
-        <v>702.0468850572011</v>
+        <v>702.0081503949148</v>
       </c>
       <c r="G2">
-        <v>-1.883785655641978</v>
+        <v>-5.739042401457101</v>
       </c>
       <c r="H2">
-        <v>0.09001051917537706</v>
+        <v>8.499458257054711E-08</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -452,14 +452,19 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -473,19 +478,19 @@
         </is>
       </c>
       <c r="D3">
-        <v>109.4911008287344</v>
+        <v>111.3302482107371</v>
       </c>
       <c r="E3">
-        <v>23.12217309366234</v>
+        <v>23.36577647762294</v>
       </c>
       <c r="F3">
-        <v>702.0000065107139</v>
+        <v>702.0081503985192</v>
       </c>
       <c r="G3">
-        <v>-4.735329174520595</v>
+        <v>-4.764671455166765</v>
       </c>
       <c r="H3">
-        <v>1.588043069228105E-05</v>
+        <v>6.898964278298078E-06</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -494,7 +499,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -506,7 +511,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -520,19 +525,19 @@
         </is>
       </c>
       <c r="D4">
-        <v>86.72416709143701</v>
+        <v>73.74881078003423</v>
       </c>
       <c r="E4">
-        <v>23.12217309366238</v>
+        <v>26.21097877443483</v>
       </c>
       <c r="F4">
-        <v>702.000006510786</v>
+        <v>702.0559994361784</v>
       </c>
       <c r="G4">
-        <v>-3.750692754532119</v>
+        <v>-2.813661077470558</v>
       </c>
       <c r="H4">
-        <v>0.0005726706542050006</v>
+        <v>0.01007021394849623</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -541,7 +546,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -553,7 +558,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -567,19 +572,19 @@
         </is>
       </c>
       <c r="D5">
-        <v>100.6396323820244</v>
+        <v>176.042991883284</v>
       </c>
       <c r="E5">
-        <v>25.93781052082497</v>
+        <v>23.36577647762294</v>
       </c>
       <c r="F5">
-        <v>702.0468850572371</v>
+        <v>702.0081503982981</v>
       </c>
       <c r="G5">
-        <v>-3.880035760968443</v>
+        <v>-7.534223912989916</v>
       </c>
       <c r="H5">
-        <v>0.0002285424808289191</v>
+        <v>9.103721156749323E-13</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -588,7 +593,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -600,7 +605,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -614,19 +619,19 @@
         </is>
       </c>
       <c r="D6">
-        <v>157.7567150520844</v>
+        <v>149.5449139813843</v>
       </c>
       <c r="E6">
-        <v>23.12217309366241</v>
+        <v>23.36577647762294</v>
       </c>
       <c r="F6">
-        <v>702.0000065107499</v>
+        <v>702.0081504049921</v>
       </c>
       <c r="G6">
-        <v>-6.82274604610257</v>
+        <v>-6.400168816328498</v>
       </c>
       <c r="H6">
-        <v>1.158551395687382E-10</v>
+        <v>8.512294172181234E-10</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -635,7 +640,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -647,7 +652,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -661,19 +666,19 @@
         </is>
       </c>
       <c r="D7">
-        <v>131.2586371501844</v>
+        <v>119.2073634760619</v>
       </c>
       <c r="E7">
-        <v>23.12217309366241</v>
+        <v>26.21097877443483</v>
       </c>
       <c r="F7">
-        <v>702.0000065107499</v>
+        <v>702.0559994373276</v>
       </c>
       <c r="G7">
-        <v>-5.676743125245492</v>
+        <v>-4.547993590851026</v>
       </c>
       <c r="H7">
-        <v>6.028702692628757E-08</v>
+        <v>1.275837312651553E-05</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -682,7 +687,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -694,7 +699,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -708,19 +713,19 @@
         </is>
       </c>
       <c r="D8">
-        <v>127.6193562399652</v>
+        <v>198.4773176532816</v>
       </c>
       <c r="E8">
-        <v>25.93781052082498</v>
+        <v>23.36577647762296</v>
       </c>
       <c r="F8">
-        <v>702.0468850572371</v>
+        <v>702.0081504037749</v>
       </c>
       <c r="G8">
-        <v>-4.920205432817935</v>
+        <v>-8.494360024515352</v>
       </c>
       <c r="H8">
-        <v>2.156060240005461E-06</v>
+        <v>7.11421521836913E-16</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -729,7 +734,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -741,7 +746,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -755,19 +760,19 @@
         </is>
       </c>
       <c r="D9">
-        <v>183.961534442234</v>
+        <v>168.0598659367791</v>
       </c>
       <c r="E9">
-        <v>23.12217309366241</v>
+        <v>23.36577647762296</v>
       </c>
       <c r="F9">
-        <v>702.0000065107499</v>
+        <v>702.0081504053331</v>
       </c>
       <c r="G9">
-        <v>-7.956065967374681</v>
+        <v>-7.192564993409372</v>
       </c>
       <c r="H9">
-        <v>4.275536363281211E-14</v>
+        <v>4.902651424027549E-12</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -776,7 +781,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -788,7 +793,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -802,19 +807,19 @@
         </is>
       </c>
       <c r="D10">
-        <v>153.5440827257316</v>
+        <v>142.4165937138505</v>
       </c>
       <c r="E10">
-        <v>23.12217309366241</v>
+        <v>26.21097877443485</v>
       </c>
       <c r="F10">
-        <v>702.0000065107499</v>
+        <v>702.0559994410141</v>
       </c>
       <c r="G10">
-        <v>-6.640555889957275</v>
+        <v>-5.433471025231533</v>
       </c>
       <c r="H10">
-        <v>1.8784197364931E-10</v>
+        <v>1.52565678642959E-07</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -823,7 +828,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -835,7 +840,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -849,19 +854,19 @@
         </is>
       </c>
       <c r="D11">
-        <v>134.616786397661</v>
+        <v>189.5997868972756</v>
       </c>
       <c r="E11">
-        <v>25.93781052082497</v>
+        <v>23.36577647762295</v>
       </c>
       <c r="F11">
-        <v>702.0468850572371</v>
+        <v>702.0081504005987</v>
       </c>
       <c r="G11">
-        <v>-5.189982642890375</v>
+        <v>-8.114422693328956</v>
       </c>
       <c r="H11">
-        <v>5.512793495375703E-07</v>
+        <v>1.310170966465424E-14</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -870,7 +875,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -882,7 +887,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -896,19 +901,19 @@
         </is>
       </c>
       <c r="D12">
-        <v>177.8630391209528</v>
+        <v>167.2390264823648</v>
       </c>
       <c r="E12">
-        <v>23.1221730936624</v>
+        <v>23.36577647762294</v>
       </c>
       <c r="F12">
-        <v>702.0000065107499</v>
+        <v>702.0081504063977</v>
       </c>
       <c r="G12">
-        <v>-7.692315008648715</v>
+        <v>-7.157435005103602</v>
       </c>
       <c r="H12">
-        <v>2.939938792243846E-13</v>
+        <v>6.227658855104629E-12</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -917,7 +922,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -929,7 +934,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -943,19 +948,19 @@
         </is>
       </c>
       <c r="D13">
-        <v>155.5022787060416</v>
+        <v>146.6349884368212</v>
       </c>
       <c r="E13">
-        <v>23.12217309366241</v>
+        <v>26.21097877443483</v>
       </c>
       <c r="F13">
-        <v>702.0000065107499</v>
+        <v>702.0559994389977</v>
       </c>
       <c r="G13">
-        <v>-6.72524498783652</v>
+        <v>-5.594411017563496</v>
       </c>
       <c r="H13">
-        <v>1.090802027693208E-10</v>
+        <v>6.347882012308575E-08</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -964,7 +969,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -976,7 +981,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -990,19 +995,19 @@
         </is>
       </c>
       <c r="D14">
-        <v>137.5822852524622</v>
+        <v>206.2581274604697</v>
       </c>
       <c r="E14">
-        <v>25.93781052082498</v>
+        <v>23.36577647762296</v>
       </c>
       <c r="F14">
-        <v>702.0468850572371</v>
+        <v>702.0081504055744</v>
       </c>
       <c r="G14">
-        <v>-5.304313760099372</v>
+        <v>-8.827360291578579</v>
       </c>
       <c r="H14">
-        <v>3.034916868558904E-07</v>
+        <v>5.080088267102977E-17</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1011,7 +1016,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1023,7 +1028,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1037,19 +1042,19 @@
         </is>
       </c>
       <c r="D15">
-        <v>200.5057553057423</v>
+        <v>161.7341537112116</v>
       </c>
       <c r="E15">
-        <v>23.12217309366241</v>
+        <v>23.36577647762296</v>
       </c>
       <c r="F15">
-        <v>702.0000065107499</v>
+        <v>702.0081504076134</v>
       </c>
       <c r="G15">
-        <v>-8.671579202073318</v>
+        <v>-6.921839463203884</v>
       </c>
       <c r="H15">
-        <v>1.763599613286299E-16</v>
+        <v>3.020953022589706E-11</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1058,7 +1063,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1070,7 +1075,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1084,19 +1089,19 @@
         </is>
       </c>
       <c r="D16">
-        <v>155.9817815564833</v>
+        <v>143.616111670028</v>
       </c>
       <c r="E16">
-        <v>23.12217309366241</v>
+        <v>26.21097877443484</v>
       </c>
       <c r="F16">
-        <v>702.0000065107499</v>
+        <v>702.0559994373866</v>
       </c>
       <c r="G16">
-        <v>-6.745982781317235</v>
+        <v>-5.479234976532258</v>
       </c>
       <c r="H16">
-        <v>9.540314381763902E-11</v>
+        <v>1.191626178510569E-07</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1105,7 +1110,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1117,7 +1122,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1131,19 +1136,19 @@
         </is>
       </c>
       <c r="D17">
-        <v>115.0708759132345</v>
+        <v>199.7795151679747</v>
       </c>
       <c r="E17">
-        <v>25.93781052082497</v>
+        <v>23.36577647762296</v>
       </c>
       <c r="F17">
-        <v>702.0468850572371</v>
+        <v>702.0081504058124</v>
       </c>
       <c r="G17">
-        <v>-4.43641439283575</v>
+        <v>-8.55009099994175</v>
       </c>
       <c r="H17">
-        <v>2.123310279901441E-05</v>
+        <v>4.59935414223405E-16</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1152,7 +1157,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1164,7 +1169,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1178,19 +1183,19 @@
         </is>
       </c>
       <c r="D18">
-        <v>199.7795151679839</v>
+        <v>140.9734601601984</v>
       </c>
       <c r="E18">
-        <v>23.12217309366241</v>
+        <v>23.36577647762296</v>
       </c>
       <c r="F18">
-        <v>702.0000065107499</v>
+        <v>702.0081504076289</v>
       </c>
       <c r="G18">
-        <v>-8.640170383584826</v>
+        <v>-6.033330854431757</v>
       </c>
       <c r="H18">
-        <v>2.261882096048185E-16</v>
+        <v>7.795940620186453E-09</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1199,7 +1204,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1211,7 +1216,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1225,19 +1230,19 @@
         </is>
       </c>
       <c r="D19">
-        <v>140.973460160206</v>
+        <v>115.3523301760635</v>
       </c>
       <c r="E19">
-        <v>23.1221730936624</v>
+        <v>26.21097877443484</v>
       </c>
       <c r="F19">
-        <v>702.0000065107499</v>
+        <v>702.0559994373932</v>
       </c>
       <c r="G19">
-        <v>-6.096894941022897</v>
+        <v>-4.40091654603046</v>
       </c>
       <c r="H19">
-        <v>5.353908394392671E-09</v>
+        <v>2.49112355800079E-05</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1246,7 +1251,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1258,7 +1263,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1272,19 +1277,19 @@
         </is>
       </c>
       <c r="D20">
-        <v>97.14061407835472</v>
+        <v>203.3489890434254</v>
       </c>
       <c r="E20">
-        <v>25.93781052082497</v>
+        <v>23.36577647762295</v>
       </c>
       <c r="F20">
-        <v>702.0468850572371</v>
+        <v>702.0081504006256</v>
       </c>
       <c r="G20">
-        <v>-3.74513546547664</v>
+        <v>-8.702856044102353</v>
       </c>
       <c r="H20">
-        <v>0.0002340952595761254</v>
+        <v>1.375531271354114E-16</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1293,7 +1298,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1305,7 +1310,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1319,19 +1324,19 @@
         </is>
       </c>
       <c r="D21">
-        <v>203.3489890434399</v>
+        <v>99.61705714539971</v>
       </c>
       <c r="E21">
-        <v>23.1221730936624</v>
+        <v>23.36577647762295</v>
       </c>
       <c r="F21">
-        <v>702.0000065107499</v>
+        <v>702.0081504064658</v>
       </c>
       <c r="G21">
-        <v>-8.794544882080146</v>
+        <v>-4.263374565822859</v>
       </c>
       <c r="H21">
-        <v>6.612477754916889E-17</v>
+        <v>4.57809557505706E-05</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1340,7 +1345,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1352,7 +1357,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1366,19 +1371,19 @@
         </is>
       </c>
       <c r="D22">
-        <v>99.61705714541316</v>
+        <v>97.42206834117796</v>
       </c>
       <c r="E22">
-        <v>23.1221730936624</v>
+        <v>26.21097877443483</v>
       </c>
       <c r="F22">
-        <v>702.0000065107499</v>
+        <v>702.0559994388564</v>
       </c>
       <c r="G22">
-        <v>-4.308291298654683</v>
+        <v>-3.716842059946256</v>
       </c>
       <c r="H22">
-        <v>3.759882486674801E-05</v>
+        <v>0.0002613469007438555</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1387,7 +1392,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1399,7 +1404,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1413,19 +1418,19 @@
         </is>
       </c>
       <c r="D23">
-        <v>80.81100305431838</v>
+        <v>217.2246641272859</v>
       </c>
       <c r="E23">
-        <v>25.93781052082497</v>
+        <v>23.36577647762295</v>
       </c>
       <c r="F23">
-        <v>702.0468850572371</v>
+        <v>702.0081504039443</v>
       </c>
       <c r="G23">
-        <v>-3.115567637809551</v>
+        <v>-9.296702137646426</v>
       </c>
       <c r="H23">
-        <v>0.002292829805144237</v>
+        <v>1.078090960193956E-18</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1434,7 +1439,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1446,7 +1451,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1460,19 +1465,19 @@
         </is>
       </c>
       <c r="D24">
-        <v>217.224664127293</v>
+        <v>137.8821793239508</v>
       </c>
       <c r="E24">
-        <v>23.1221730936624</v>
+        <v>23.36577647762296</v>
       </c>
       <c r="F24">
-        <v>702.0000065107499</v>
+        <v>702.0081504055275</v>
       </c>
       <c r="G24">
-        <v>-9.394647434190885</v>
+        <v>-5.901031341971383</v>
       </c>
       <c r="H24">
-        <v>4.733351356576639E-19</v>
+        <v>1.686008596399075E-08</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1481,7 +1486,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1493,7 +1498,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1507,19 +1512,19 @@
         </is>
       </c>
       <c r="D25">
-        <v>137.8821793239563</v>
+        <v>81.09245731714969</v>
       </c>
       <c r="E25">
-        <v>23.1221730936624</v>
+        <v>26.21097877443484</v>
       </c>
       <c r="F25">
-        <v>702.0000065107499</v>
+        <v>702.0559994412176</v>
       </c>
       <c r="G25">
-        <v>-5.963201588597597</v>
+        <v>-3.09383552651777</v>
       </c>
       <c r="H25">
-        <v>1.175527483159281E-08</v>
+        <v>0.002465134082382202</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1528,7 +1533,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1540,7 +1545,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1554,19 +1559,19 @@
         </is>
       </c>
       <c r="D26">
-        <v>97.82861809407318</v>
+        <v>237.6577357334382</v>
       </c>
       <c r="E26">
-        <v>25.93781052082498</v>
+        <v>23.98877312693736</v>
       </c>
       <c r="F26">
-        <v>702.0468850572371</v>
+        <v>702.0158502486269</v>
       </c>
       <c r="G26">
-        <v>-3.771660603948372</v>
+        <v>-9.907040033930233</v>
       </c>
       <c r="H26">
-        <v>0.0002109967091078909</v>
+        <v>5.745700614560855E-21</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1575,7 +1580,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1587,7 +1592,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1601,19 +1606,19 @@
         </is>
       </c>
       <c r="D27">
-        <v>237.689960723467</v>
+        <v>110.3334778738633</v>
       </c>
       <c r="E27">
-        <v>23.73868906827645</v>
+        <v>23.36577647762293</v>
       </c>
       <c r="F27">
-        <v>702.0075498133457</v>
+        <v>702.008150404768</v>
       </c>
       <c r="G27">
-        <v>-10.01276692406353</v>
+        <v>-4.72201204096633</v>
       </c>
       <c r="H27">
-        <v>2.263111379536304E-21</v>
+        <v>4.230585345368438E-06</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1622,7 +1627,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1634,7 +1639,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1648,19 +1653,19 @@
         </is>
       </c>
       <c r="D28">
-        <v>110.3334778738773</v>
+        <v>98.1100723568964</v>
       </c>
       <c r="E28">
-        <v>23.1221730936624</v>
+        <v>26.21097877443482</v>
       </c>
       <c r="F28">
-        <v>702.0000065107499</v>
+        <v>702.0559994374602</v>
       </c>
       <c r="G28">
-        <v>-4.771760743548746</v>
+        <v>-3.743090756022785</v>
       </c>
       <c r="H28">
-        <v>3.333930409003912E-06</v>
+        <v>0.0002359710777378306</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1669,7 +1674,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1681,7 +1686,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1695,19 +1700,19 @@
         </is>
       </c>
       <c r="D29">
-        <v>-35.91663468963942</v>
+        <v>139.5405353103845</v>
       </c>
       <c r="E29">
-        <v>25.93781052082497</v>
+        <v>25.65447853816975</v>
       </c>
       <c r="F29">
-        <v>702.0468850572371</v>
+        <v>702.0355397075119</v>
       </c>
       <c r="G29">
-        <v>1.384721145248657</v>
+        <v>-5.439227115950556</v>
       </c>
       <c r="H29">
-        <v>0.1665776556122205</v>
+        <v>2.21868995232735E-07</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1716,14 +1721,19 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1737,19 +1747,19 @@
         </is>
       </c>
       <c r="D30">
-        <v>139.5478442393749</v>
+        <v>40.6113983932933</v>
       </c>
       <c r="E30">
-        <v>25.38706899677344</v>
+        <v>23.36577647762294</v>
       </c>
       <c r="F30">
-        <v>702.0268393180971</v>
+        <v>702.008150399186</v>
       </c>
       <c r="G30">
-        <v>-5.496808011082758</v>
+        <v>-1.738071851889289</v>
       </c>
       <c r="H30">
-        <v>1.624884699905484E-07</v>
+        <v>0.09916396532355448</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1758,19 +1768,14 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>SF_early</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1784,19 +1789,19 @@
         </is>
       </c>
       <c r="D31">
-        <v>40.6113983932967</v>
+        <v>-35.63518042680543</v>
       </c>
       <c r="E31">
-        <v>23.12217309366241</v>
+        <v>26.21097877443482</v>
       </c>
       <c r="F31">
-        <v>702.0000065107499</v>
+        <v>702.0559994370951</v>
       </c>
       <c r="G31">
-        <v>-1.756383287539177</v>
+        <v>1.359551687614299</v>
       </c>
       <c r="H31">
-        <v>0.09535078162677406</v>
+        <v>0.1744083265750608</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1805,14 +1810,14 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1826,19 +1831,19 @@
         </is>
       </c>
       <c r="D32">
-        <v>270.840203022818</v>
+        <v>490.713086424492</v>
       </c>
       <c r="E32">
-        <v>25.79544453339166</v>
+        <v>23.62645005562609</v>
       </c>
       <c r="F32">
-        <v>710.047950699988</v>
+        <v>710.0077158273278</v>
       </c>
       <c r="G32">
-        <v>-10.49953617477772</v>
+        <v>-20.76964949322296</v>
       </c>
       <c r="H32">
-        <v>9.050427555572353E-24</v>
+        <v>1.877716080985221E-74</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1847,7 +1852,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -1859,7 +1864,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1873,19 +1878,19 @@
         </is>
       </c>
       <c r="D33">
-        <v>340.0475611609493</v>
+        <v>458.7287609622372</v>
       </c>
       <c r="E33">
-        <v>22.99593117633161</v>
+        <v>23.62645005562609</v>
       </c>
       <c r="F33">
-        <v>710.0000074178428</v>
+        <v>710.0077158290774</v>
       </c>
       <c r="G33">
-        <v>-14.78729252377224</v>
+        <v>-19.41589870176039</v>
       </c>
       <c r="H33">
-        <v>1.490373326512521E-42</v>
+        <v>3.314574647880302E-67</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1894,7 +1899,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -1906,7 +1911,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1920,19 +1925,19 @@
         </is>
       </c>
       <c r="D34">
-        <v>308.0632356986782</v>
+        <v>421.4142230615225</v>
       </c>
       <c r="E34">
-        <v>22.99593117633162</v>
+        <v>26.50260180485961</v>
       </c>
       <c r="F34">
-        <v>710.0000074178428</v>
+        <v>710.0587058871209</v>
       </c>
       <c r="G34">
-        <v>-13.39642362539986</v>
+        <v>-15.90086234417372</v>
       </c>
       <c r="H34">
-        <v>3.585797372446183E-36</v>
+        <v>1.261012372754926E-48</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1941,7 +1946,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -1953,7 +1958,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1967,19 +1972,19 @@
         </is>
       </c>
       <c r="D35">
-        <v>220.7354986091902</v>
+        <v>493.6813460040865</v>
       </c>
       <c r="E35">
-        <v>25.79544453339155</v>
+        <v>23.62645005562607</v>
       </c>
       <c r="F35">
-        <v>710.047950699988</v>
+        <v>710.0077158264597</v>
       </c>
       <c r="G35">
-        <v>-8.557150403958095</v>
+        <v>-20.89528239925016</v>
       </c>
       <c r="H35">
-        <v>1.422501254083971E-16</v>
+        <v>3.686111125168981E-75</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1988,7 +1993,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2000,7 +2005,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2014,19 +2019,19 @@
         </is>
       </c>
       <c r="D36">
-        <v>363.7675511476502</v>
+        <v>431.1331498215516</v>
       </c>
       <c r="E36">
-        <v>22.99593117633159</v>
+        <v>23.62645005562607</v>
       </c>
       <c r="F36">
-        <v>710.0000074179165</v>
+        <v>710.0077158267206</v>
       </c>
       <c r="G36">
-        <v>-15.81877891172572</v>
+        <v>-18.24790219463748</v>
       </c>
       <c r="H36">
-        <v>9.942577585811018E-48</v>
+        <v>8.08477166549903E-61</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2035,7 +2040,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2047,7 +2052,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2061,19 +2066,19 @@
         </is>
       </c>
       <c r="D37">
-        <v>301.2193549651173</v>
+        <v>350.5577882408032</v>
       </c>
       <c r="E37">
-        <v>22.99593117633159</v>
+        <v>26.50260180485959</v>
       </c>
       <c r="F37">
-        <v>710.0000074179165</v>
+        <v>710.0587058891801</v>
       </c>
       <c r="G37">
-        <v>-13.0988109442224</v>
+        <v>-13.2272971092417</v>
       </c>
       <c r="H37">
-        <v>8.613721658688478E-35</v>
+        <v>1.462264442427724E-35</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2082,7 +2087,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2094,7 +2099,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2108,19 +2113,19 @@
         </is>
       </c>
       <c r="D38">
-        <v>193.787817386808</v>
+        <v>496.4043425217344</v>
       </c>
       <c r="E38">
-        <v>25.79544453339155</v>
+        <v>23.62645005562611</v>
       </c>
       <c r="F38">
-        <v>710.047950699988</v>
+        <v>710.0077158256937</v>
       </c>
       <c r="G38">
-        <v>-7.512482180175439</v>
+        <v>-21.01053443716683</v>
       </c>
       <c r="H38">
-        <v>2.623028827341075E-13</v>
+        <v>8.261416098597213E-76</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2129,7 +2134,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2141,7 +2146,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2155,19 +2160,19 @@
         </is>
       </c>
       <c r="D39">
-        <v>389.7910202264737</v>
+        <v>412.3974738886153</v>
       </c>
       <c r="E39">
-        <v>22.99593117633159</v>
+        <v>23.62645005562611</v>
       </c>
       <c r="F39">
-        <v>710.0000074179165</v>
+        <v>710.0077158265367</v>
       </c>
       <c r="G39">
-        <v>-16.95043428498619</v>
+        <v>-17.45490638321317</v>
       </c>
       <c r="H39">
-        <v>1.361244328441987E-53</v>
+        <v>1.45831335744074E-56</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2176,7 +2181,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2188,7 +2193,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2202,19 +2207,19 @@
         </is>
       </c>
       <c r="D40">
-        <v>305.7841515933564</v>
+        <v>300.3096344572455</v>
       </c>
       <c r="E40">
-        <v>22.99593117633159</v>
+        <v>26.50260180485963</v>
       </c>
       <c r="F40">
-        <v>710.0000074179165</v>
+        <v>710.0587058882863</v>
       </c>
       <c r="G40">
-        <v>-13.29731547936109</v>
+        <v>-11.33132651157969</v>
       </c>
       <c r="H40">
-        <v>1.038434674550306E-35</v>
+        <v>3.571555019253559E-27</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2223,7 +2228,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2235,7 +2240,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2249,19 +2254,19 @@
         </is>
       </c>
       <c r="D41">
-        <v>170.2529185195049</v>
+        <v>460.276086661977</v>
       </c>
       <c r="E41">
-        <v>25.79544453339155</v>
+        <v>23.62645005562609</v>
       </c>
       <c r="F41">
-        <v>710.047950699988</v>
+        <v>710.0077158252464</v>
       </c>
       <c r="G41">
-        <v>-6.600115702565887</v>
+        <v>-19.48138994975138</v>
       </c>
       <c r="H41">
-        <v>1.206083687162559E-10</v>
+        <v>2.881444590043399E-67</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2270,7 +2275,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2282,7 +2287,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2296,19 +2301,19 @@
         </is>
       </c>
       <c r="D42">
-        <v>390.5250679539701</v>
+        <v>370.4176301484321</v>
       </c>
       <c r="E42">
-        <v>22.99593117633159</v>
+        <v>23.62645005562609</v>
       </c>
       <c r="F42">
-        <v>710.0000074179165</v>
+        <v>710.0077158272865</v>
       </c>
       <c r="G42">
-        <v>-16.98235505052805</v>
+        <v>-15.67809083786693</v>
       </c>
       <c r="H42">
-        <v>9.24711219328846E-54</v>
+        <v>2.584454698178975E-47</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2317,7 +2322,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2329,7 +2334,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2343,19 +2348,19 @@
         </is>
       </c>
       <c r="D43">
-        <v>300.666611440427</v>
+        <v>239.9124320026882</v>
       </c>
       <c r="E43">
-        <v>22.99593117633159</v>
+        <v>26.50260180485961</v>
       </c>
       <c r="F43">
-        <v>710.0000074179165</v>
+        <v>710.0587058873022</v>
       </c>
       <c r="G43">
-        <v>-13.07477436486182</v>
+        <v>-9.052410543280965</v>
       </c>
       <c r="H43">
-        <v>1.111444347634905E-34</v>
+        <v>2.656579953513978E-18</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2364,7 +2369,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2376,7 +2381,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2390,19 +2395,19 @@
         </is>
       </c>
       <c r="D44">
-        <v>170.3484455794305</v>
+        <v>396.9727082724596</v>
       </c>
       <c r="E44">
-        <v>25.79544453339156</v>
+        <v>23.6264500556261</v>
       </c>
       <c r="F44">
-        <v>710.047950699988</v>
+        <v>710.0077158254167</v>
       </c>
       <c r="G44">
-        <v>-6.603818955665552</v>
+        <v>-16.8020463225676</v>
       </c>
       <c r="H44">
-        <v>1.178023894523882E-10</v>
+        <v>8.180041445545729E-53</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2411,7 +2416,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2423,7 +2428,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2437,19 +2442,19 @@
         </is>
       </c>
       <c r="D45">
-        <v>372.100911726769</v>
+        <v>316.0059470628935</v>
       </c>
       <c r="E45">
-        <v>22.9959311763316</v>
+        <v>23.6264500556261</v>
       </c>
       <c r="F45">
-        <v>710.0000074179165</v>
+        <v>710.0077158280532</v>
       </c>
       <c r="G45">
-        <v>-16.1811630446064</v>
+        <v>-13.37509216657133</v>
       </c>
       <c r="H45">
-        <v>1.379135041390258E-49</v>
+        <v>4.509307230904757E-36</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2458,7 +2463,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2470,7 +2475,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2484,19 +2489,19 @@
         </is>
       </c>
       <c r="D46">
-        <v>291.1341505172056</v>
+        <v>195.128736900298</v>
       </c>
       <c r="E46">
-        <v>22.99593117633159</v>
+        <v>26.50260180485962</v>
       </c>
       <c r="F46">
-        <v>710.0000074179165</v>
+        <v>710.0587058872625</v>
       </c>
       <c r="G46">
-        <v>-12.66024620985357</v>
+        <v>-7.362625689999933</v>
       </c>
       <c r="H46">
-        <v>8.618833437859107E-33</v>
+        <v>7.510802329326875E-13</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2505,7 +2510,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2517,7 +2522,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2531,19 +2536,19 @@
         </is>
       </c>
       <c r="D47">
-        <v>183.3141530852142</v>
+        <v>376.2779565777573</v>
       </c>
       <c r="E47">
-        <v>25.79544453339156</v>
+        <v>23.6264500556261</v>
       </c>
       <c r="F47">
-        <v>710.047950699988</v>
+        <v>710.0077158254167</v>
       </c>
       <c r="G47">
-        <v>-7.106454507807324</v>
+        <v>-15.92613175876395</v>
       </c>
       <c r="H47">
-        <v>4.35591434395308E-12</v>
+        <v>2.812417052394627E-48</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2552,7 +2557,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2564,7 +2569,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2578,19 +2583,19 @@
         </is>
       </c>
       <c r="D48">
-        <v>376.2779565777574</v>
+        <v>285.6209668142047</v>
       </c>
       <c r="E48">
-        <v>22.99593117633159</v>
+        <v>23.6264500556261</v>
       </c>
       <c r="F48">
-        <v>710.0000074179165</v>
+        <v>710.0077158280533</v>
       </c>
       <c r="G48">
-        <v>-16.36280582388588</v>
+        <v>-12.08903437214388</v>
       </c>
       <c r="H48">
-        <v>1.589097196420951E-50</v>
+        <v>2.996931619697906E-30</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2599,7 +2604,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2611,7 +2616,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2625,19 +2630,19 @@
         </is>
       </c>
       <c r="D49">
-        <v>285.6209668142066</v>
+        <v>183.2226478603906</v>
       </c>
       <c r="E49">
-        <v>22.99593117633159</v>
+        <v>26.50260180485962</v>
       </c>
       <c r="F49">
-        <v>710.0000074179165</v>
+        <v>710.0587058872276</v>
       </c>
       <c r="G49">
-        <v>-12.42050015822713</v>
+        <v>-6.913383418332693</v>
       </c>
       <c r="H49">
-        <v>1.02582682025019E-31</v>
+        <v>1.583247053491639E-11</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2646,7 +2651,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2658,7 +2663,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2672,19 +2677,19 @@
         </is>
       </c>
       <c r="D50">
-        <v>231.4447992446771</v>
+        <v>392.0635311400442</v>
       </c>
       <c r="E50">
-        <v>25.79544453339156</v>
+        <v>23.62645005562608</v>
       </c>
       <c r="F50">
-        <v>710.047950699988</v>
+        <v>710.0077158252464</v>
       </c>
       <c r="G50">
-        <v>-8.972312880480802</v>
+        <v>-16.59426321842555</v>
       </c>
       <c r="H50">
-        <v>5.117212624039815E-18</v>
+        <v>9.966141589932156E-52</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2693,7 +2698,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2705,7 +2710,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2719,19 +2724,19 @@
         </is>
       </c>
       <c r="D51">
-        <v>392.0635311400284</v>
+        <v>301.7937863310584</v>
       </c>
       <c r="E51">
-        <v>22.99593117633158</v>
+        <v>23.62645005562608</v>
       </c>
       <c r="F51">
-        <v>710.0000074179165</v>
+        <v>710.0077158272866</v>
       </c>
       <c r="G51">
-        <v>-17.04925658951168</v>
+        <v>-12.77355614662869</v>
       </c>
       <c r="H51">
-        <v>4.107930777972067E-54</v>
+        <v>2.646122343295817E-33</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2740,7 +2745,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2752,7 +2757,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2766,19 +2771,19 @@
         </is>
       </c>
       <c r="D52">
-        <v>301.7937863310446</v>
+        <v>231.35329401987</v>
       </c>
       <c r="E52">
-        <v>22.99593117633159</v>
+        <v>26.5026018048596</v>
       </c>
       <c r="F52">
-        <v>710.0000074179165</v>
+        <v>710.0587058870599</v>
       </c>
       <c r="G52">
-        <v>-13.12379064004435</v>
+        <v>-8.729455912417183</v>
       </c>
       <c r="H52">
-        <v>6.607261126906895E-35</v>
+        <v>3.632550475676591E-17</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2787,7 +2792,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -2799,7 +2804,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2813,19 +2818,19 @@
         </is>
       </c>
       <c r="D53">
-        <v>258.9191250753898</v>
+        <v>428.9388919757068</v>
       </c>
       <c r="E53">
-        <v>25.79544453339156</v>
+        <v>23.62645005562609</v>
       </c>
       <c r="F53">
-        <v>710.047950699988</v>
+        <v>710.0077158256935</v>
       </c>
       <c r="G53">
-        <v>-10.03739729083659</v>
+        <v>-18.1550292560166</v>
       </c>
       <c r="H53">
-        <v>5.857224517491396E-22</v>
+        <v>5.137680019563696E-60</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2834,7 +2839,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -2846,7 +2851,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2860,19 +2865,19 @@
         </is>
       </c>
       <c r="D54">
-        <v>428.9388919757109</v>
+        <v>322.9897359223612</v>
       </c>
       <c r="E54">
-        <v>22.9959311763316</v>
+        <v>23.62645005562609</v>
       </c>
       <c r="F54">
-        <v>710.0000074179165</v>
+        <v>710.0077158265367</v>
       </c>
       <c r="G54">
-        <v>-18.65281682601282</v>
+        <v>-13.6706841341765</v>
       </c>
       <c r="H54">
-        <v>1.021910102058777E-62</v>
+        <v>1.846051661892005E-37</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2881,7 +2886,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -2893,7 +2898,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2907,19 +2912,19 @@
         </is>
       </c>
       <c r="D55">
-        <v>322.9897359223671</v>
+        <v>258.8276198505621</v>
       </c>
       <c r="E55">
-        <v>22.9959311763316</v>
+        <v>26.50260180485962</v>
       </c>
       <c r="F55">
-        <v>710.0000074179165</v>
+        <v>710.0587058881116</v>
       </c>
       <c r="G55">
-        <v>-14.0455167240543</v>
+        <v>-9.76612114374003</v>
       </c>
       <c r="H55">
-        <v>3.030888604768518E-39</v>
+        <v>6.351912738048686E-21</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2928,7 +2933,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -2940,7 +2945,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2954,19 +2959,19 @@
         </is>
       </c>
       <c r="D56">
-        <v>279.5875730065929</v>
+        <v>441.3502308376514</v>
       </c>
       <c r="E56">
-        <v>25.79544453339156</v>
+        <v>23.62645005562609</v>
       </c>
       <c r="F56">
-        <v>710.047950699988</v>
+        <v>710.00771582646</v>
       </c>
       <c r="G56">
-        <v>-10.83864139827766</v>
+        <v>-18.68034468989361</v>
       </c>
       <c r="H56">
-        <v>3.898326522370265E-25</v>
+        <v>7.230549669255354E-63</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2975,7 +2980,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -2987,7 +2992,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3001,19 +3006,19 @@
         </is>
       </c>
       <c r="D57">
-        <v>441.3502308376422</v>
+        <v>324.8040758571975</v>
       </c>
       <c r="E57">
-        <v>22.99593117633159</v>
+        <v>23.62645005562609</v>
       </c>
       <c r="F57">
-        <v>710.0000074179165</v>
+        <v>710.0077158267209</v>
       </c>
       <c r="G57">
-        <v>-19.19253573396928</v>
+        <v>-13.74747687834944</v>
       </c>
       <c r="H57">
-        <v>1.129547434287643E-65</v>
+        <v>7.995242492234941E-38</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3022,7 +3027,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3034,7 +3039,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3048,19 +3053,19 @@
         </is>
       </c>
       <c r="D58">
-        <v>324.8040758571897</v>
+        <v>279.4960677817791</v>
       </c>
       <c r="E58">
-        <v>22.99593117633158</v>
+        <v>26.50260180485961</v>
       </c>
       <c r="F58">
-        <v>710.0000074179165</v>
+        <v>710.0587058892819</v>
       </c>
       <c r="G58">
-        <v>-14.12441502658054</v>
+        <v>-10.54598600694856</v>
       </c>
       <c r="H58">
-        <v>1.266111947793608E-39</v>
+        <v>5.907210972314578E-24</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3069,7 +3074,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3081,7 +3086,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3095,19 +3100,19 @@
         </is>
       </c>
       <c r="D59">
-        <v>135.8454465787013</v>
+        <v>327.5757828977236</v>
       </c>
       <c r="E59">
-        <v>25.79544453339156</v>
+        <v>23.62645005562608</v>
       </c>
       <c r="F59">
-        <v>710.047950699988</v>
+        <v>710.0077158273284</v>
       </c>
       <c r="G59">
-        <v>-5.266257241772005</v>
+        <v>-13.86479061079763</v>
       </c>
       <c r="H59">
-        <v>2.216972264376732E-07</v>
+        <v>4.430549042079488E-38</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3116,7 +3121,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3128,7 +3133,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3142,19 +3147,19 @@
         </is>
       </c>
       <c r="D60">
-        <v>327.5757828977224</v>
+        <v>199.9373330036807</v>
       </c>
       <c r="E60">
-        <v>22.99593117633158</v>
+        <v>23.62645005562608</v>
       </c>
       <c r="F60">
-        <v>710.0000074179165</v>
+        <v>710.0077158290774</v>
       </c>
       <c r="G60">
-        <v>-14.24494535080526</v>
+        <v>-8.462436486774296</v>
       </c>
       <c r="H60">
-        <v>6.639142990371306E-40</v>
+        <v>4.478045611353017E-16</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3163,7 +3168,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3175,7 +3180,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3189,19 +3194,19 @@
         </is>
       </c>
       <c r="D61">
-        <v>199.9373330036811</v>
+        <v>135.7539413538798</v>
       </c>
       <c r="E61">
-        <v>22.99593117633158</v>
+        <v>26.50260180485961</v>
       </c>
       <c r="F61">
-        <v>710.0000074179165</v>
+        <v>710.0587058875983</v>
       </c>
       <c r="G61">
-        <v>-8.694465619616455</v>
+        <v>-5.122287326861148</v>
       </c>
       <c r="H61">
-        <v>7.202839887748964E-17</v>
+        <v>4.671744037551307E-07</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3210,7 +3215,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3222,7 +3227,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3236,19 +3241,19 @@
         </is>
       </c>
       <c r="D62">
-        <v>58.0970503907762</v>
+        <v>102.6641122944042</v>
       </c>
       <c r="E62">
-        <v>17.10722105921376</v>
+        <v>15.4722551405371</v>
       </c>
       <c r="F62">
-        <v>710.0367165996623</v>
+        <v>710.002902011585</v>
       </c>
       <c r="G62">
-        <v>-3.396054227023961</v>
+        <v>-6.635368364979038</v>
       </c>
       <c r="H62">
-        <v>0.002871515934993908</v>
+        <v>1.284749718084235E-10</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3257,7 +3262,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3269,7 +3274,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3283,19 +3288,19 @@
         </is>
       </c>
       <c r="D63">
-        <v>1.357132252951549</v>
+        <v>121.020236077711</v>
       </c>
       <c r="E63">
-        <v>15.25057022630105</v>
+        <v>15.4722551405371</v>
       </c>
       <c r="F63">
-        <v>710.0000043457624</v>
+        <v>710.0029020094561</v>
       </c>
       <c r="G63">
-        <v>-0.08898895141711137</v>
+        <v>-7.821758042280448</v>
       </c>
       <c r="H63">
-        <v>0.9291157857539669</v>
+        <v>5.664721909095306E-14</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3304,14 +3309,19 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3325,19 +3335,19 @@
         </is>
       </c>
       <c r="D64">
-        <v>19.71325603625651</v>
+        <v>159.1937142518946</v>
       </c>
       <c r="E64">
-        <v>15.25057022630108</v>
+        <v>17.35584111099147</v>
       </c>
       <c r="F64">
-        <v>710.0000043457624</v>
+        <v>710.0408063560244</v>
       </c>
       <c r="G64">
-        <v>-1.292624193307808</v>
+        <v>-9.172342223799062</v>
       </c>
       <c r="H64">
-        <v>0.2749580881172337</v>
+        <v>2.961761329708108E-18</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3346,14 +3356,19 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3367,19 +3382,19 @@
         </is>
       </c>
       <c r="D65">
-        <v>112.6614587749408</v>
+        <v>102.0022153212962</v>
       </c>
       <c r="E65">
-        <v>17.10722105921386</v>
+        <v>15.47225514053709</v>
       </c>
       <c r="F65">
-        <v>710.0367165998099</v>
+        <v>710.0029020106508</v>
       </c>
       <c r="G65">
-        <v>-6.585608403900408</v>
+        <v>-6.592588759349748</v>
       </c>
       <c r="H65">
-        <v>5.289865934909471E-10</v>
+        <v>1.686934278410233E-10</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3388,7 +3403,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3400,7 +3415,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3414,19 +3429,19 @@
         </is>
       </c>
       <c r="D66">
-        <v>41.0987706558214</v>
+        <v>122.1411106173025</v>
       </c>
       <c r="E66">
-        <v>15.25057022630115</v>
+        <v>15.47225514053709</v>
       </c>
       <c r="F66">
-        <v>710.0000043459468</v>
+        <v>710.0029020094718</v>
       </c>
       <c r="G66">
-        <v>-2.694900587057553</v>
+        <v>-7.894202203096722</v>
       </c>
       <c r="H66">
-        <v>0.008649004526842119</v>
+        <v>3.327879866290646E-14</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3435,7 +3450,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3447,7 +3462,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3461,19 +3476,19 @@
         </is>
       </c>
       <c r="D67">
-        <v>61.23766595182875</v>
+        <v>173.3545872600699</v>
       </c>
       <c r="E67">
-        <v>15.25057022630115</v>
+        <v>17.35584111099146</v>
       </c>
       <c r="F67">
-        <v>710.0000043459468</v>
+        <v>710.0408063562846</v>
       </c>
       <c r="G67">
-        <v>-4.015434507899134</v>
+        <v>-9.988256181389236</v>
       </c>
       <c r="H67">
-        <v>0.0001313075291184484</v>
+        <v>2.715844540983023E-21</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3482,7 +3497,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3494,7 +3509,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3508,19 +3523,19 @@
         </is>
       </c>
       <c r="D68">
-        <v>137.7350134904493</v>
+        <v>104.1575902221316</v>
       </c>
       <c r="E68">
-        <v>17.10722105921385</v>
+        <v>15.47225514053711</v>
       </c>
       <c r="F68">
-        <v>710.0367165998099</v>
+        <v>710.0029020109695</v>
       </c>
       <c r="G68">
-        <v>-8.05127922376767</v>
+        <v>-6.731894560686248</v>
       </c>
       <c r="H68">
-        <v>2.071945985491389E-14</v>
+        <v>6.911510757552093E-11</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3529,7 +3544,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3541,7 +3556,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3555,19 +3570,19 @@
         </is>
       </c>
       <c r="D69">
-        <v>67.04448019397006</v>
+        <v>124.8387195037876</v>
       </c>
       <c r="E69">
-        <v>15.25057022630114</v>
+        <v>15.47225514053711</v>
       </c>
       <c r="F69">
-        <v>710.0000043459468</v>
+        <v>710.0029020092218</v>
       </c>
       <c r="G69">
-        <v>-4.396194974948879</v>
+        <v>-8.068553573467886</v>
       </c>
       <c r="H69">
-        <v>2.540389405695358E-05</v>
+        <v>9.102324248673747E-15</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3576,7 +3591,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -3588,7 +3603,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3602,19 +3617,19 @@
         </is>
       </c>
       <c r="D70">
-        <v>87.7256094756255</v>
+        <v>174.6378073382661</v>
       </c>
       <c r="E70">
-        <v>15.25057022630114</v>
+        <v>17.35584111099148</v>
       </c>
       <c r="F70">
-        <v>710.0000043459468</v>
+        <v>710.040806355453</v>
       </c>
       <c r="G70">
-        <v>-5.7522838932497</v>
+        <v>-10.06219210129019</v>
       </c>
       <c r="H70">
-        <v>3.926441406689706E-08</v>
+        <v>1.40982869617127E-21</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3623,7 +3638,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -3635,7 +3650,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3649,19 +3664,19 @@
         </is>
       </c>
       <c r="D71">
-        <v>157.0472199097918</v>
+        <v>113.7263989228193</v>
       </c>
       <c r="E71">
-        <v>17.10722105921386</v>
+        <v>15.4722551405371</v>
       </c>
       <c r="F71">
-        <v>710.0367165998099</v>
+        <v>710.0029020099815</v>
       </c>
       <c r="G71">
-        <v>-9.180171306970225</v>
+        <v>-7.350344076530749</v>
       </c>
       <c r="H71">
-        <v>2.775491900828557E-18</v>
+        <v>1.090854213714628E-12</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -3670,7 +3685,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -3682,7 +3697,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3696,19 +3711,19 @@
         </is>
       </c>
       <c r="D72">
-        <v>90.55111117648838</v>
+        <v>132.5282111522073</v>
       </c>
       <c r="E72">
-        <v>15.25057022630114</v>
+        <v>15.4722551405371</v>
       </c>
       <c r="F72">
-        <v>710.0000043459468</v>
+        <v>710.0029020094076</v>
       </c>
       <c r="G72">
-        <v>-5.937555765641069</v>
+        <v>-8.565539408989268</v>
       </c>
       <c r="H72">
-        <v>9.052686330333129E-09</v>
+        <v>1.997759163232108E-16</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3717,7 +3732,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -3729,7 +3744,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3743,19 +3758,19 @@
         </is>
       </c>
       <c r="D73">
-        <v>109.3529234058768</v>
+        <v>180.0121914757774</v>
       </c>
       <c r="E73">
-        <v>15.25057022630114</v>
+        <v>17.35584111099147</v>
       </c>
       <c r="F73">
-        <v>710.0000043459468</v>
+        <v>710.0408063563601</v>
       </c>
       <c r="G73">
-        <v>-7.170415386651356</v>
+        <v>-10.3718506250772</v>
       </c>
       <c r="H73">
-        <v>5.644572838676866E-12</v>
+        <v>8.710742317531806E-23</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -3764,7 +3779,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -3776,7 +3791,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3790,19 +3805,19 @@
         </is>
       </c>
       <c r="D74">
-        <v>173.1354654758141</v>
+        <v>99.66442575690502</v>
       </c>
       <c r="E74">
-        <v>17.10722105921386</v>
+        <v>15.47225514053711</v>
       </c>
       <c r="F74">
-        <v>710.0367165998099</v>
+        <v>710.0029020103356</v>
       </c>
       <c r="G74">
-        <v>-10.12060724980018</v>
+        <v>-6.441493166421844</v>
       </c>
       <c r="H74">
-        <v>8.377659763496624E-22</v>
+        <v>4.361957369280071E-10</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -3811,7 +3826,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -3823,7 +3838,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3837,19 +3852,19 @@
         </is>
       </c>
       <c r="D75">
-        <v>91.0014310283066</v>
+        <v>127.3670062502422</v>
       </c>
       <c r="E75">
-        <v>15.25057022630115</v>
+        <v>15.47225514053711</v>
       </c>
       <c r="F75">
-        <v>710.0000043459099</v>
+        <v>710.0029020095981</v>
       </c>
       <c r="G75">
-        <v>-5.967083832141924</v>
+        <v>-8.231961345863686</v>
       </c>
       <c r="H75">
-        <v>7.623049592037064E-09</v>
+        <v>2.645585696499983E-15</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -3858,7 +3873,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -3870,7 +3885,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3884,19 +3899,19 @@
         </is>
       </c>
       <c r="D76">
-        <v>118.7040115216437</v>
+        <v>181.588144024067</v>
       </c>
       <c r="E76">
-        <v>15.25057022630114</v>
+        <v>17.35584111099147</v>
       </c>
       <c r="F76">
-        <v>710.0000043459468</v>
+        <v>710.0408063549162</v>
       </c>
       <c r="G76">
-        <v>-7.783578565274019</v>
+        <v>-10.46265305511855</v>
       </c>
       <c r="H76">
-        <v>7.485705725479169E-14</v>
+        <v>3.806239954245367E-23</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -3905,7 +3920,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -3917,7 +3932,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3931,19 +3946,19 @@
         </is>
       </c>
       <c r="D77">
-        <v>166.7407184665692</v>
+        <v>99.96075525096396</v>
       </c>
       <c r="E77">
-        <v>17.10722105921386</v>
+        <v>15.47225514053711</v>
       </c>
       <c r="F77">
-        <v>710.0367165998099</v>
+        <v>710.0029020103359</v>
       </c>
       <c r="G77">
-        <v>-9.746803287887813</v>
+        <v>-6.460645480765635</v>
       </c>
       <c r="H77">
-        <v>2.254141040245915E-20</v>
+        <v>3.871075017507734E-10</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -3952,7 +3967,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -3964,7 +3979,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3978,19 +3993,19 @@
         </is>
       </c>
       <c r="D78">
-        <v>99.96075525097827</v>
+        <v>118.875515175328</v>
       </c>
       <c r="E78">
-        <v>15.25057022630115</v>
+        <v>15.47225514053711</v>
       </c>
       <c r="F78">
-        <v>710.0000043459468</v>
+        <v>710.0029020095981</v>
       </c>
       <c r="G78">
-        <v>-6.554558535692381</v>
+        <v>-7.683140828247828</v>
       </c>
       <c r="H78">
-        <v>2.146375139050631E-10</v>
+        <v>1.550163238208594E-13</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -3999,7 +4014,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4011,7 +4026,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4025,19 +4040,19 @@
         </is>
       </c>
       <c r="D79">
-        <v>118.8755151753426</v>
+        <v>166.5304022862092</v>
       </c>
       <c r="E79">
-        <v>15.25057022630115</v>
+        <v>17.35584111099148</v>
       </c>
       <c r="F79">
-        <v>710.0000043459468</v>
+        <v>710.0408063547294</v>
       </c>
       <c r="G79">
-        <v>-7.79482428600144</v>
+        <v>-9.595063772550052</v>
       </c>
       <c r="H79">
-        <v>6.896472105449917E-14</v>
+        <v>8.355808749500089E-20</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -4046,7 +4061,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4058,7 +4073,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4072,19 +4087,19 @@
         </is>
       </c>
       <c r="D80">
-        <v>202.9838094520637</v>
+        <v>116.265727544398</v>
       </c>
       <c r="E80">
-        <v>17.10722105921386</v>
+        <v>15.4722551405371</v>
       </c>
       <c r="F80">
-        <v>710.0367165998099</v>
+        <v>710.0029020099821</v>
       </c>
       <c r="G80">
-        <v>-11.86538764826083</v>
+        <v>-7.51446550540544</v>
       </c>
       <c r="H80">
-        <v>5.649712187843181E-29</v>
+        <v>3.44884118506706E-13</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -4093,7 +4108,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4105,7 +4120,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4119,19 +4134,19 @@
         </is>
       </c>
       <c r="D81">
-        <v>116.2657275443976</v>
+        <v>156.4761083635255</v>
       </c>
       <c r="E81">
-        <v>15.25057022630115</v>
+        <v>15.4722551405371</v>
       </c>
       <c r="F81">
-        <v>710.0000043459468</v>
+        <v>710.0029020094076</v>
       </c>
       <c r="G81">
-        <v>-7.623697069627314</v>
+        <v>-10.11333557663228</v>
       </c>
       <c r="H81">
-        <v>1.584240850096356E-13</v>
+        <v>4.47042846715754E-22</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4140,7 +4155,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4152,7 +4167,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4166,19 +4181,19 @@
         </is>
       </c>
       <c r="D82">
-        <v>156.4761083635248</v>
+        <v>202.7734932717194</v>
       </c>
       <c r="E82">
-        <v>15.25057022630115</v>
+        <v>17.35584111099146</v>
       </c>
       <c r="F82">
-        <v>710.0000043459468</v>
+        <v>710.0408063564124</v>
       </c>
       <c r="G82">
-        <v>-10.26034476361192</v>
+        <v>-11.68329970152256</v>
       </c>
       <c r="H82">
-        <v>1.195526593767671E-22</v>
+        <v>3.439881441265153E-28</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -4187,7 +4202,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4199,7 +4214,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4213,19 +4228,19 @@
         </is>
       </c>
       <c r="D83">
-        <v>216.2704857318693</v>
+        <v>130.4866496731357</v>
       </c>
       <c r="E83">
-        <v>17.10722105921386</v>
+        <v>15.4722551405371</v>
       </c>
       <c r="F83">
-        <v>710.0367165998099</v>
+        <v>710.0029020109695</v>
       </c>
       <c r="G83">
-        <v>-12.64205828540382</v>
+        <v>-8.433589576173834</v>
       </c>
       <c r="H83">
-        <v>2.081479885655995E-32</v>
+        <v>3.736637288403903E-16</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -4234,7 +4249,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4246,7 +4261,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4260,19 +4275,19 @@
         </is>
       </c>
       <c r="D84">
-        <v>130.4866496731496</v>
+        <v>168.4955433745698</v>
       </c>
       <c r="E84">
-        <v>15.25057022630115</v>
+        <v>15.4722551405371</v>
       </c>
       <c r="F84">
-        <v>710.0000043459468</v>
+        <v>710.0029020092218</v>
       </c>
       <c r="G84">
-        <v>-8.556181686118999</v>
+        <v>-10.89017352959192</v>
       </c>
       <c r="H84">
-        <v>1.433538054295377E-16</v>
+        <v>3.604633181933111E-25</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -4281,7 +4296,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4293,7 +4308,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4307,19 +4322,19 @@
         </is>
       </c>
       <c r="D85">
-        <v>168.4955433745835</v>
+        <v>216.0601695515107</v>
       </c>
       <c r="E85">
-        <v>15.25057022630115</v>
+        <v>17.35584111099147</v>
       </c>
       <c r="F85">
-        <v>710.0000043459468</v>
+        <v>710.0408063554382</v>
       </c>
       <c r="G85">
-        <v>-11.04847496679146</v>
+        <v>-12.44884463794034</v>
       </c>
       <c r="H85">
-        <v>8.067942351187953E-26</v>
+        <v>1.532653451038896E-31</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -4328,7 +4343,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -4340,7 +4355,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4354,19 +4369,19 @@
         </is>
       </c>
       <c r="D86">
-        <v>226.9156892073958</v>
+        <v>138.566135325876</v>
       </c>
       <c r="E86">
-        <v>17.10722105921386</v>
+        <v>15.4722551405371</v>
       </c>
       <c r="F86">
-        <v>710.0367165998099</v>
+        <v>710.002902010651</v>
       </c>
       <c r="G86">
-        <v>-13.26432203231396</v>
+        <v>-8.955781433750701</v>
       </c>
       <c r="H86">
-        <v>2.954671819050036E-35</v>
+        <v>5.856045725667468E-18</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -4375,7 +4390,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -4387,7 +4402,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4401,19 +4416,19 @@
         </is>
       </c>
       <c r="D87">
-        <v>138.5661353258836</v>
+        <v>175.9263820548525</v>
       </c>
       <c r="E87">
-        <v>15.25057022630114</v>
+        <v>15.4722551405371</v>
       </c>
       <c r="F87">
-        <v>710.0000043459468</v>
+        <v>710.0029020094717</v>
       </c>
       <c r="G87">
-        <v>-9.085964214433918</v>
+        <v>-11.37044215318863</v>
       </c>
       <c r="H87">
-        <v>2.016311260599995E-18</v>
+        <v>3.669922682818935E-27</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -4422,7 +4437,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -4434,7 +4449,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4448,19 +4463,19 @@
         </is>
       </c>
       <c r="D88">
-        <v>175.9263820548605</v>
+        <v>226.7053730270434</v>
       </c>
       <c r="E88">
-        <v>15.25057022630114</v>
+        <v>17.35584111099147</v>
       </c>
       <c r="F88">
-        <v>710.0000043459468</v>
+        <v>710.0408063565463</v>
       </c>
       <c r="G88">
-        <v>-11.53572485777992</v>
+        <v>-13.06219454172525</v>
       </c>
       <c r="H88">
-        <v>7.337619625268047E-28</v>
+        <v>2.538690059220033E-34</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -4469,7 +4484,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -4481,7 +4496,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4495,19 +4510,19 @@
         </is>
       </c>
       <c r="D89">
-        <v>280.0936683298993</v>
+        <v>209.7499627425701</v>
       </c>
       <c r="E89">
-        <v>17.10722105921385</v>
+        <v>15.4722551405371</v>
       </c>
       <c r="F89">
-        <v>710.0367165998099</v>
+        <v>710.0029020115852</v>
       </c>
       <c r="G89">
-        <v>-16.3728326979818</v>
+        <v>-13.55652171175926</v>
       </c>
       <c r="H89">
-        <v>7.043825944302571E-51</v>
+        <v>4.248905639671192E-37</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -4516,7 +4531,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -4528,7 +4543,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4542,19 +4557,19 @@
         </is>
       </c>
       <c r="D90">
-        <v>209.7499627425804</v>
+        <v>263.2476446138537</v>
       </c>
       <c r="E90">
-        <v>15.25057022630114</v>
+        <v>15.4722551405371</v>
       </c>
       <c r="F90">
-        <v>710.0000043459468</v>
+        <v>710.0029020094565</v>
       </c>
       <c r="G90">
-        <v>-13.75358164515354</v>
+        <v>-17.01417422494207</v>
       </c>
       <c r="H90">
-        <v>4.987056177978313E-38</v>
+        <v>6.287049791554419E-54</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -4563,7 +4578,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -4575,7 +4590,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4589,19 +4604,19 @@
         </is>
       </c>
       <c r="D91">
-        <v>263.2476446138646</v>
+        <v>279.8833521495438</v>
       </c>
       <c r="E91">
-        <v>15.25057022630114</v>
+        <v>17.35584111099147</v>
       </c>
       <c r="F91">
-        <v>710.0000043459468</v>
+        <v>710.0408063561763</v>
       </c>
       <c r="G91">
-        <v>-17.26149519051213</v>
+        <v>-16.12617621696787</v>
       </c>
       <c r="H91">
-        <v>3.104371094064655E-55</v>
+        <v>1.322325006817293E-49</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -4610,7 +4625,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
